--- a/Leo 老师新概念/音标.xlsx
+++ b/Leo 老师新概念/音标.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12495" windowHeight="10995"/>
+    <workbookView windowWidth="18645" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="元音音标" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="辅音音标" sheetId="2" r:id="rId2"/>
+    <sheet name="练习" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -23,14 +23,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,48 +481,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,97 +535,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1612,6 +1605,521 @@
         <a:xfrm>
           <a:off x="685800" y="80067150"/>
           <a:ext cx="6229350" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="5829300" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4286250"/>
+          <a:ext cx="3448050" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect r="43478"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="5143500"/>
+          <a:ext cx="1362075" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5143500"/>
+          <a:ext cx="990600" cy="3552825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5143500"/>
+          <a:ext cx="838200" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9429750"/>
+          <a:ext cx="2771775" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="9429750"/>
+          <a:ext cx="2857500" cy="3600450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13373100"/>
+          <a:ext cx="3514725" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="14230350"/>
+          <a:ext cx="2181225" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="14230350"/>
+          <a:ext cx="1323975" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="3743325" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3257550"/>
+          <a:ext cx="3448050" cy="4162425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,8 +2424,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="B466" sqref="B466"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1934,8 +2442,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1943,6 +2451,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1951,8 +2460,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1960,5 +2469,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>